--- a/Masters Pool.xlsx
+++ b/Masters Pool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1d6550f1a48af012/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1029" documentId="8_{C3CADA74-E13B-4F2E-B443-0BB4420EFBB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{618CFBB6-CE1B-46A2-9771-9920A8263AA3}"/>
+  <xr:revisionPtr revIDLastSave="1088" documentId="8_{C3CADA74-E13B-4F2E-B443-0BB4420EFBB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43E89360-5137-4AB1-9754-14BF1F9E0B9D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A83D6438-FCDB-450D-B36D-FBB30E0CCEC2}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="165">
   <si>
     <t>Tier 1</t>
   </si>
@@ -602,13 +602,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -626,10 +625,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -952,7 +947,7 @@
   <dimension ref="B1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1045,43 +1040,43 @@
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4">
         <v>-5</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
         <v>33</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H4" t="s">
         <v>52</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J4" t="s">
         <v>73</v>
       </c>
       <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4" s="6" t="s">
+        <v>-3</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="6">
         <v>11</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="6">
         <v>10</v>
       </c>
       <c r="Q4" s="1"/>
@@ -1091,42 +1086,42 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>-6</v>
-      </c>
-      <c r="D5" s="6" t="s">
+        <v>-12</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>5</v>
       </c>
       <c r="F5" t="s">
         <v>34</v>
       </c>
       <c r="G5">
-        <v>-3</v>
-      </c>
-      <c r="H5" s="6" t="s">
+        <v>-4</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="6">
         <v>9</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="K5" s="7">
-        <v>4</v>
-      </c>
-      <c r="L5" s="6" t="s">
+      <c r="K5" s="6">
+        <v>4</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="M5" s="7">
-        <v>4</v>
-      </c>
-      <c r="N5" s="6" t="s">
+      <c r="M5" s="6">
+        <v>4</v>
+      </c>
+      <c r="N5" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="6">
         <v>9</v>
       </c>
     </row>
@@ -1141,36 +1136,36 @@
         <v>12</v>
       </c>
       <c r="E6">
-        <v>-2</v>
-      </c>
-      <c r="F6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>3</v>
       </c>
       <c r="H6" t="s">
         <v>54</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
         <v>75</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L6" t="s">
         <v>89</v>
       </c>
       <c r="M6">
-        <v>2</v>
-      </c>
-      <c r="N6" s="6" t="s">
+        <v>-4</v>
+      </c>
+      <c r="N6" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6" s="6">
         <v>4</v>
       </c>
     </row>
@@ -1179,42 +1174,42 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
       </c>
       <c r="E7">
-        <v>-5</v>
-      </c>
-      <c r="F7" s="6" t="s">
+        <v>-2</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <v>8</v>
       </c>
       <c r="H7" t="s">
         <v>55</v>
       </c>
       <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="6" t="s">
+        <v>-2</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="K7" s="7">
-        <v>4</v>
-      </c>
-      <c r="L7" s="6" t="s">
+      <c r="K7" s="6">
+        <v>4</v>
+      </c>
+      <c r="L7" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="6">
         <v>3</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="N7" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1223,42 +1218,42 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="F8" t="s">
         <v>37</v>
       </c>
       <c r="G8">
-        <v>-2</v>
-      </c>
-      <c r="H8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <v>5</v>
       </c>
       <c r="J8" t="s">
         <v>77</v>
       </c>
       <c r="K8">
-        <v>-1</v>
-      </c>
-      <c r="L8" s="6" t="s">
+        <v>-4</v>
+      </c>
+      <c r="L8" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="6">
         <v>7</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="N8" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="6">
         <v>6</v>
       </c>
     </row>
@@ -1267,30 +1262,30 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>-7</v>
+        <v>-10</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F9" t="s">
         <v>38</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H9" t="s">
         <v>57</v>
       </c>
       <c r="I9">
-        <v>2</v>
-      </c>
-      <c r="J9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="6">
         <v>6</v>
       </c>
       <c r="L9" t="s">
@@ -1305,100 +1300,100 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
       </c>
       <c r="E10">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
         <v>39</v>
       </c>
       <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="H10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="6">
         <v>8</v>
       </c>
       <c r="J10" t="s">
         <v>79</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="L10" t="s">
         <v>93</v>
       </c>
       <c r="M10">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>5</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <v>3</v>
       </c>
       <c r="F11" t="s">
         <v>40</v>
       </c>
       <c r="G11">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="H11" t="s">
         <v>59</v>
       </c>
       <c r="I11">
-        <v>2</v>
-      </c>
-      <c r="J11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="6">
         <v>8</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="L11" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <v>5</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <v>5</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="6">
         <v>5</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1407,25 +1402,25 @@
         <v>19</v>
       </c>
       <c r="E13">
-        <v>-4</v>
-      </c>
-      <c r="F13" s="6" t="s">
+        <v>-3</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="6">
         <v>4</v>
       </c>
       <c r="H13" t="s">
         <v>61</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J13" t="s">
         <v>82</v>
       </c>
       <c r="K13">
-        <v>-5</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
@@ -1434,25 +1429,25 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="F14" t="s">
         <v>43</v>
       </c>
       <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="6">
         <v>7</v>
       </c>
       <c r="J14" t="s">
         <v>83</v>
       </c>
       <c r="K14">
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.3">
@@ -1460,24 +1455,24 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>-3</v>
-      </c>
-      <c r="F15" s="6" t="s">
+        <v>-6</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="6">
         <v>9</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="I15" s="7">
-        <v>4</v>
-      </c>
-      <c r="J15" s="6" t="s">
+      <c r="I15" s="6">
+        <v>4</v>
+      </c>
+      <c r="J15" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="6">
         <v>6</v>
       </c>
     </row>
@@ -1486,24 +1481,24 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>-8</v>
+        <v>-5</v>
       </c>
       <c r="F16" t="s">
         <v>45</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H16" t="s">
         <v>64</v>
       </c>
       <c r="I16">
-        <v>2</v>
-      </c>
-      <c r="J16" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="6">
         <v>6</v>
       </c>
     </row>
@@ -1512,7 +1507,7 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="s">
         <v>46</v>
@@ -1520,71 +1515,71 @@
       <c r="G17">
         <v>2</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="6">
         <v>3</v>
       </c>
       <c r="F18" t="s">
         <v>47</v>
       </c>
       <c r="G18">
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="H18" t="s">
         <v>66</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="6">
         <v>6</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="6">
         <v>3</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="6">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="6">
         <v>8</v>
       </c>
       <c r="F20" t="s">
         <v>49</v>
       </c>
       <c r="G20">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="H20" t="s">
         <v>68</v>
       </c>
       <c r="I20">
-        <v>-4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.3">
@@ -1592,18 +1587,18 @@
         <v>27</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21" t="s">
         <v>50</v>
       </c>
       <c r="G21">
-        <v>-2</v>
-      </c>
-      <c r="H21" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="6">
         <v>7</v>
       </c>
     </row>
@@ -1618,7 +1613,7 @@
         <v>164</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.3">
@@ -1626,12 +1621,12 @@
         <v>29</v>
       </c>
       <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="H23" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="6">
         <v>10</v>
       </c>
     </row>
@@ -1640,20 +1635,20 @@
         <v>30</v>
       </c>
       <c r="E24">
-        <v>-1</v>
-      </c>
-      <c r="H24" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="6">
         <v>6</v>
       </c>
     </row>
@@ -1666,8 +1661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F174D8C-A2FF-46CD-B611-50BD99D35F93}">
   <dimension ref="A2:S44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1763,7 +1758,7 @@
       </c>
       <c r="O4">
         <f>Tiers!C9</f>
-        <v>-7</v>
+        <v>-10</v>
       </c>
       <c r="P4" t="s">
         <v>1</v>
@@ -1796,21 +1791,21 @@
       </c>
       <c r="E5">
         <f>Tiers!E4</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
       </c>
       <c r="G5">
         <f>Tiers!E21</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H5" t="s">
         <v>10</v>
       </c>
       <c r="I5">
         <f>Tiers!E4</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J5" t="s">
         <v>26</v>
@@ -1824,21 +1819,21 @@
       </c>
       <c r="M5">
         <f>Tiers!E14</f>
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="N5" t="s">
         <v>15</v>
       </c>
       <c r="O5">
         <f>Tiers!E9</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P5" t="s">
         <v>10</v>
       </c>
       <c r="Q5">
         <f>Tiers!E4</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R5" t="s">
         <v>26</v>
@@ -1857,63 +1852,63 @@
       </c>
       <c r="C6">
         <f>Tiers!G4</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
         <v>47</v>
       </c>
       <c r="E6">
         <f>Tiers!G18</f>
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
       </c>
       <c r="G6">
         <f>Tiers!G11</f>
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="H6" t="s">
         <v>33</v>
       </c>
       <c r="I6">
         <f>Tiers!G4</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J6" t="s">
         <v>39</v>
       </c>
       <c r="K6">
         <f>Tiers!G10</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L6" t="s">
         <v>37</v>
       </c>
       <c r="M6">
         <f>Tiers!G8</f>
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="N6" t="s">
         <v>33</v>
       </c>
       <c r="O6">
         <f>Tiers!G4</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P6" t="s">
         <v>39</v>
       </c>
       <c r="Q6">
         <f>Tiers!G10</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R6" t="s">
         <v>33</v>
       </c>
       <c r="S6">
         <f>Tiers!G4</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -1925,7 +1920,7 @@
       </c>
       <c r="C7">
         <f>Tiers!I6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
         <v>63</v>
@@ -1974,7 +1969,7 @@
       </c>
       <c r="Q7">
         <f>Tiers!I6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" t="s">
         <v>71</v>
@@ -1993,14 +1988,14 @@
       </c>
       <c r="C8">
         <f>Tiers!K10</f>
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D8" t="s">
         <v>73</v>
       </c>
       <c r="E8">
         <f>Tiers!K4</f>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="F8" t="s">
         <v>76</v>
@@ -2014,35 +2009,35 @@
       </c>
       <c r="I8">
         <f>Tiers!K4</f>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="J8" t="s">
         <v>73</v>
       </c>
       <c r="K8">
         <f>Tiers!K4</f>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="L8" t="s">
         <v>73</v>
       </c>
       <c r="M8">
         <f>Tiers!K4</f>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="N8" t="s">
         <v>83</v>
       </c>
       <c r="O8">
         <f>Tiers!K14</f>
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="P8" t="s">
         <v>79</v>
       </c>
       <c r="Q8">
         <f>Tiers!K10</f>
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="R8" t="s">
         <v>78</v>
@@ -2082,7 +2077,7 @@
       </c>
       <c r="I9">
         <f>Tiers!M10</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
         <v>88</v>
@@ -2096,7 +2091,7 @@
       </c>
       <c r="M9">
         <f>Tiers!M10</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N9" t="s">
         <v>92</v>
@@ -2110,7 +2105,7 @@
       </c>
       <c r="Q9">
         <f>Tiers!M10</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R9" t="s">
         <v>90</v>
@@ -2194,11 +2189,11 @@
       </c>
       <c r="C11">
         <f>SUM(C4:C10)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11">
         <f>SUM(E4:E10)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G11">
         <f>SUM(G4:G10)</f>
@@ -2206,7 +2201,7 @@
       </c>
       <c r="I11">
         <f>SUM(I4:I10)</f>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K11">
         <f>SUM(K4:K10)</f>
@@ -2214,19 +2209,19 @@
       </c>
       <c r="M11">
         <f>SUM(M4:M10)</f>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="O11">
         <f>SUM(O4:O10)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q11">
         <f>SUM(Q4:Q10)</f>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="S11">
         <f>SUM(S4:S10)</f>
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="18" x14ac:dyDescent="0.35">
@@ -2257,11 +2252,11 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C15">
-        <f>$O$33</f>
-        <v>-4</v>
+        <f>$M$22</f>
+        <v>-6</v>
       </c>
       <c r="E15" t="s">
         <v>0</v>
@@ -2271,7 +2266,7 @@
       </c>
       <c r="G15">
         <f>Tiers!C5</f>
-        <v>-6</v>
+        <v>-12</v>
       </c>
       <c r="H15" t="s">
         <v>3</v>
@@ -2292,21 +2287,21 @@
       </c>
       <c r="M15">
         <f>Tiers!C5</f>
-        <v>-6</v>
+        <v>-12</v>
       </c>
       <c r="N15" t="s">
         <v>6</v>
       </c>
       <c r="O15">
         <f>Tiers!C9</f>
-        <v>-7</v>
+        <v>-10</v>
       </c>
       <c r="P15" t="s">
         <v>2</v>
       </c>
       <c r="Q15">
         <f>Tiers!C5</f>
-        <v>-6</v>
+        <v>-12</v>
       </c>
       <c r="R15" t="s">
         <v>3</v>
@@ -2322,7 +2317,7 @@
       </c>
       <c r="C16">
         <f>$I$22</f>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -2332,28 +2327,28 @@
       </c>
       <c r="G16">
         <f>Tiers!E14</f>
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="H16" t="s">
         <v>16</v>
       </c>
       <c r="I16">
         <f>Tiers!E10</f>
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="J16" t="s">
         <v>20</v>
       </c>
       <c r="K16">
         <f>Tiers!E14</f>
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="L16" t="s">
         <v>19</v>
       </c>
       <c r="M16">
         <f>Tiers!E13</f>
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="N16" t="s">
         <v>28</v>
@@ -2367,7 +2362,7 @@
       </c>
       <c r="Q16">
         <f>Tiers!E6</f>
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="R16" t="s">
         <v>11</v>
@@ -2379,11 +2374,11 @@
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C17">
-        <f>$M$22</f>
-        <v>-1</v>
+        <f>$O$22</f>
+        <v>2</v>
       </c>
       <c r="E17" t="s">
         <v>32</v>
@@ -2393,21 +2388,21 @@
       </c>
       <c r="G17">
         <f>Tiers!G8</f>
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="H17" t="s">
         <v>34</v>
       </c>
       <c r="I17">
         <f>Tiers!G5</f>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="J17" t="s">
         <v>38</v>
       </c>
       <c r="K17">
         <f>Tiers!G9</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L17" t="s">
         <v>35</v>
@@ -2428,7 +2423,7 @@
       </c>
       <c r="Q17">
         <f>Tiers!G14</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" t="s">
         <v>42</v>
@@ -2440,11 +2435,11 @@
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C18">
-        <f>$Q$11</f>
-        <v>4</v>
+        <f>$Q$22</f>
+        <v>2</v>
       </c>
       <c r="E18" t="s">
         <v>51</v>
@@ -2461,7 +2456,7 @@
       </c>
       <c r="I18">
         <f>Tiers!I18</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J18" t="s">
         <v>60</v>
@@ -2475,14 +2470,14 @@
       </c>
       <c r="M18">
         <f>Tiers!I20</f>
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="N18" t="s">
         <v>59</v>
       </c>
       <c r="O18">
         <f>Tiers!I11</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P18" t="s">
         <v>62</v>
@@ -2505,7 +2500,7 @@
       </c>
       <c r="C19">
         <f>$E$11</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E19" t="s">
         <v>72</v>
@@ -2522,7 +2517,7 @@
       </c>
       <c r="I19">
         <f>Tiers!K4</f>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="J19" t="s">
         <v>85</v>
@@ -2536,37 +2531,37 @@
       </c>
       <c r="M19">
         <f>Tiers!K4</f>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="N19" t="s">
         <v>75</v>
       </c>
       <c r="O19">
         <f>Tiers!K6</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P19" t="s">
         <v>73</v>
       </c>
       <c r="Q19">
         <f>Tiers!K4</f>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="R19" t="s">
         <v>75</v>
       </c>
       <c r="S19">
         <f>Tiers!K6</f>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C20">
-        <f>$M$33</f>
-        <v>5</v>
+        <f>$O$33</f>
+        <v>6</v>
       </c>
       <c r="E20" t="s">
         <v>86</v>
@@ -2583,14 +2578,14 @@
       </c>
       <c r="I20">
         <f>Tiers!M10</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
         <v>93</v>
       </c>
       <c r="K20">
         <f>Tiers!M10</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L20" t="s">
         <v>88</v>
@@ -2604,7 +2599,7 @@
       </c>
       <c r="O20">
         <f>Tiers!M6</f>
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="P20" t="s">
         <v>92</v>
@@ -2627,7 +2622,7 @@
       </c>
       <c r="C21">
         <f>$O$11</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E21" t="s">
         <v>94</v>
@@ -2684,60 +2679,60 @@
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C22">
-        <f>$O$22</f>
-        <v>6</v>
+        <f>$M$33</f>
+        <v>8</v>
       </c>
       <c r="E22" t="s">
         <v>108</v>
       </c>
       <c r="G22">
         <f>SUM(G15:G21)</f>
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I22">
         <f>SUM(I15:I21)</f>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <f>SUM(K15:K21)</f>
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="M22">
         <f>SUM(M15:M21)</f>
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="O22">
         <f>SUM(O15:O21)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q22">
         <f>SUM(Q15:Q21)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S22">
         <f>SUM(S15:S21)</f>
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="C23">
-        <f>$Q$22</f>
-        <v>7</v>
+        <f>$C$11</f>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="C24">
-        <f>$C$11</f>
-        <v>8</v>
+        <f>$Q$11</f>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
         <v>127</v>
@@ -2763,20 +2758,20 @@
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="C25">
-        <f>$I$11</f>
-        <v>8</v>
+        <f>$Q$33</f>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="C26">
-        <f>$M$11</f>
-        <v>9</v>
+        <f>$K$33</f>
+        <v>12</v>
       </c>
       <c r="E26" t="s">
         <v>0</v>
@@ -2786,28 +2781,28 @@
       </c>
       <c r="G26">
         <f>Tiers!C7</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H26" t="s">
         <v>6</v>
       </c>
       <c r="I26">
         <f>Tiers!C9</f>
-        <v>-7</v>
+        <v>-10</v>
       </c>
       <c r="J26" t="s">
         <v>2</v>
       </c>
       <c r="K26">
         <f>Tiers!C5</f>
-        <v>-6</v>
+        <v>-12</v>
       </c>
       <c r="L26" t="s">
         <v>6</v>
       </c>
       <c r="M26">
         <f>Tiers!C9</f>
-        <v>-7</v>
+        <v>-10</v>
       </c>
       <c r="N26" t="s">
         <v>1</v>
@@ -2821,7 +2816,7 @@
       </c>
       <c r="Q26">
         <f>Tiers!C5</f>
-        <v>-6</v>
+        <v>-12</v>
       </c>
       <c r="R26" t="s">
         <v>1</v>
@@ -2833,11 +2828,11 @@
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C27">
-        <f>$K$22</f>
-        <v>12</v>
+        <f>$I$11</f>
+        <v>14</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
@@ -2861,35 +2856,35 @@
       </c>
       <c r="K27">
         <f>Tiers!E4</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L27" t="s">
         <v>16</v>
       </c>
       <c r="M27">
         <f>Tiers!E10</f>
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="N27" t="s">
         <v>20</v>
       </c>
       <c r="O27">
         <f>Tiers!E14</f>
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="P27" t="s">
         <v>14</v>
       </c>
       <c r="Q27">
         <f>Tiers!E8</f>
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="R27" t="s">
         <v>10</v>
       </c>
       <c r="S27">
         <f>Tiers!E4</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.3">
@@ -2898,7 +2893,7 @@
       </c>
       <c r="C28">
         <f>$S$33</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E28" t="s">
         <v>32</v>
@@ -2915,7 +2910,7 @@
       </c>
       <c r="I28">
         <f>Tiers!G4</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J28" t="s">
         <v>36</v>
@@ -2929,14 +2924,14 @@
       </c>
       <c r="M28">
         <f>Tiers!G8</f>
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="N28" t="s">
         <v>47</v>
       </c>
       <c r="O28">
         <f>Tiers!G18</f>
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="P28" t="s">
         <v>35</v>
@@ -2950,16 +2945,16 @@
       </c>
       <c r="S28">
         <f>Tiers!G10</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C29">
-        <f>$Q$33</f>
-        <v>17</v>
+        <f>$I$33</f>
+        <v>16</v>
       </c>
       <c r="E29" t="s">
         <v>51</v>
@@ -2983,7 +2978,7 @@
       </c>
       <c r="K29">
         <f>Tiers!I7</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L29" t="s">
         <v>60</v>
@@ -2997,7 +2992,7 @@
       </c>
       <c r="O29">
         <f>Tiers!I22</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P29" t="s">
         <v>60</v>
@@ -3016,10 +3011,10 @@
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="C30">
-        <f>$I$44</f>
+        <f>$M$11</f>
         <v>18</v>
       </c>
       <c r="E30" t="s">
@@ -3030,21 +3025,21 @@
       </c>
       <c r="G30">
         <f>Tiers!K10</f>
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="H30" t="s">
         <v>73</v>
       </c>
       <c r="I30">
         <f>Tiers!K4</f>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="J30" t="s">
         <v>73</v>
       </c>
       <c r="K30">
         <f>Tiers!K4</f>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="L30" t="s">
         <v>76</v>
@@ -3058,30 +3053,30 @@
       </c>
       <c r="O30">
         <f>Tiers!K6</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P30" t="s">
         <v>75</v>
       </c>
       <c r="Q30">
         <f>Tiers!K6</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R30" t="s">
         <v>73</v>
       </c>
       <c r="S30">
         <f>Tiers!K4</f>
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C31">
-        <f>$I$33</f>
-        <v>19</v>
+        <f>$I$44</f>
+        <v>20</v>
       </c>
       <c r="E31" t="s">
         <v>86</v>
@@ -3091,7 +3086,7 @@
       </c>
       <c r="G31">
         <f>Tiers!M10</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H31" t="s">
         <v>87</v>
@@ -3112,14 +3107,14 @@
       </c>
       <c r="M31">
         <f>Tiers!M6</f>
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="N31" t="s">
         <v>93</v>
       </c>
       <c r="O31">
         <f>Tiers!M10</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P31" t="s">
         <v>90</v>
@@ -3138,11 +3133,11 @@
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C32">
-        <f>$K$33</f>
-        <v>19</v>
+        <f>$K$22</f>
+        <v>21</v>
       </c>
       <c r="E32" t="s">
         <v>94</v>
@@ -3199,60 +3194,60 @@
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C33">
-        <f>$G$44</f>
-        <v>23</v>
+        <f>$K$11</f>
+        <v>25</v>
       </c>
       <c r="E33" t="s">
         <v>108</v>
       </c>
       <c r="G33">
         <f>SUM(G26:G32)</f>
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I33">
         <f>SUM(I26:I32)</f>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K33">
         <f>SUM(K26:K32)</f>
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="M33">
         <f>SUM(M26:M32)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O33">
         <f>SUM(O26:O32)</f>
-        <v>-4</v>
+        <v>6</v>
       </c>
       <c r="Q33">
         <f>SUM(Q26:Q32)</f>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="S33">
         <f>SUM(S26:S32)</f>
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C34">
-        <f>$S$22</f>
-        <v>24</v>
+        <f>$G$44</f>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C35">
-        <f>$K$11</f>
-        <v>25</v>
+        <f>$G$33</f>
+        <v>26</v>
       </c>
       <c r="F35" t="s">
         <v>133</v>
@@ -3263,20 +3258,20 @@
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C36">
-        <f>$S$11</f>
-        <v>27</v>
+        <f>$S$22</f>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C37">
-        <f>$G$33</f>
-        <v>29</v>
+        <f>$S$11</f>
+        <v>30</v>
       </c>
       <c r="E37" t="s">
         <v>0</v>
@@ -3293,7 +3288,7 @@
       </c>
       <c r="I37">
         <f>Tiers!C10</f>
-        <v>-2</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.3">
@@ -3302,7 +3297,7 @@
       </c>
       <c r="C38">
         <f>$G$22</f>
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E38" t="s">
         <v>9</v>
@@ -3312,14 +3307,14 @@
       </c>
       <c r="G38">
         <f>Tiers!E4</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H38" t="s">
         <v>16</v>
       </c>
       <c r="I38">
         <f>Tiers!E10</f>
-        <v>-3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.3">
@@ -3376,14 +3371,14 @@
       </c>
       <c r="G41">
         <f>Tiers!K4</f>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="H41" t="s">
         <v>73</v>
       </c>
       <c r="I41">
         <f>Tiers!K4</f>
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.3">
@@ -3395,7 +3390,7 @@
       </c>
       <c r="G42">
         <f>Tiers!M10</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H42" t="s">
         <v>92</v>
@@ -3430,11 +3425,11 @@
       </c>
       <c r="G44">
         <f>SUM(G37:G43)</f>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I44">
         <f>SUM(I37:I43)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3450,7 +3445,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3648,20 +3643,23 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>143</v>
+        <v>127</v>
+      </c>
+      <c r="B23" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>127</v>
+        <v>155</v>
+      </c>
+      <c r="B24" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>155</v>
-      </c>
-      <c r="B25" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -3681,7 +3679,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B25">
-    <sortCondition ref="B1:B25"/>
+    <sortCondition ref="B25"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Masters Pool.xlsx
+++ b/Masters Pool.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1d6550f1a48af012/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1d6550f1a48af012/Documents/GitHub/Masters-Pool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1088" documentId="8_{C3CADA74-E13B-4F2E-B443-0BB4420EFBB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43E89360-5137-4AB1-9754-14BF1F9E0B9D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD3C8867-3234-4943-B631-CC1D5674429D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A83D6438-FCDB-450D-B36D-FBB30E0CCEC2}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="165">
   <si>
     <t>Tier 1</t>
   </si>
@@ -625,6 +625,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -946,7 +950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4FD8711-EC41-4EF8-A5FB-B51ED97CC08F}">
   <dimension ref="B1:Q25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
@@ -1041,31 +1045,31 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
         <v>33</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H4" t="s">
         <v>52</v>
       </c>
       <c r="I4">
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="J4" t="s">
         <v>73</v>
       </c>
       <c r="K4">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>87</v>
@@ -1086,7 +1090,7 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>-12</v>
+        <v>-16</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>11</v>
@@ -1098,7 +1102,7 @@
         <v>34</v>
       </c>
       <c r="G5">
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>53</v>
@@ -1136,7 +1140,7 @@
         <v>12</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>35</v>
@@ -1148,19 +1152,19 @@
         <v>54</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J6" t="s">
         <v>75</v>
       </c>
       <c r="K6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L6" t="s">
         <v>89</v>
       </c>
       <c r="M6">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="N6" s="5" t="s">
         <v>96</v>
@@ -1174,13 +1178,13 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
       </c>
       <c r="E7">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>36</v>
@@ -1192,7 +1196,7 @@
         <v>55</v>
       </c>
       <c r="I7">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>76</v>
@@ -1224,13 +1228,13 @@
         <v>14</v>
       </c>
       <c r="E8">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F8" t="s">
         <v>37</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>56</v>
@@ -1242,7 +1246,7 @@
         <v>77</v>
       </c>
       <c r="K8">
-        <v>-4</v>
+        <v>8</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>91</v>
@@ -1262,7 +1266,7 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>-10</v>
+        <v>-7</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -1274,13 +1278,13 @@
         <v>38</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H9" t="s">
         <v>57</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>78</v>
@@ -1300,19 +1304,19 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="F10" t="s">
         <v>39</v>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>58</v>
@@ -1324,13 +1328,13 @@
         <v>79</v>
       </c>
       <c r="K10">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L10" t="s">
         <v>93</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.3">
@@ -1356,7 +1360,7 @@
         <v>59</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>80</v>
@@ -1402,7 +1406,7 @@
         <v>19</v>
       </c>
       <c r="E13">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>42</v>
@@ -1414,13 +1418,13 @@
         <v>61</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J13" t="s">
         <v>82</v>
       </c>
       <c r="K13">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
@@ -1429,13 +1433,13 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F14" t="s">
         <v>43</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>62</v>
@@ -1447,7 +1451,7 @@
         <v>83</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.3">
@@ -1455,7 +1459,7 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>-6</v>
+        <v>-9</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>44</v>
@@ -1481,19 +1485,19 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>-5</v>
+        <v>-11</v>
       </c>
       <c r="F16" t="s">
         <v>45</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H16" t="s">
         <v>64</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>85</v>
@@ -1507,13 +1511,13 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="F17" t="s">
         <v>46</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>65</v>
@@ -1533,13 +1537,13 @@
         <v>47</v>
       </c>
       <c r="G18">
-        <v>-8</v>
+        <v>-5</v>
       </c>
       <c r="H18" t="s">
         <v>66</v>
       </c>
       <c r="I18">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.3">
@@ -1573,13 +1577,13 @@
         <v>49</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H20" t="s">
         <v>68</v>
       </c>
       <c r="I20">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.3">
@@ -1587,13 +1591,13 @@
         <v>27</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21" t="s">
         <v>50</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>69</v>
@@ -1607,13 +1611,13 @@
         <v>28</v>
       </c>
       <c r="E22">
-        <v>-5</v>
+        <v>4</v>
       </c>
       <c r="H22" t="s">
         <v>164</v>
       </c>
       <c r="I22">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.3">
@@ -1621,7 +1625,7 @@
         <v>29</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>70</v>
@@ -1635,7 +1639,7 @@
         <v>30</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>71</v>
@@ -1662,7 +1666,7 @@
   <dimension ref="A2:S44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1716,14 +1720,14 @@
       </c>
       <c r="C4">
         <f>Tiers!C4</f>
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
       </c>
       <c r="E4">
         <f>Tiers!C4</f>
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="F4" t="s">
         <v>8</v>
@@ -1737,14 +1741,14 @@
       </c>
       <c r="I4">
         <f>Tiers!C4</f>
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="J4" t="s">
         <v>1</v>
       </c>
       <c r="K4">
         <f>Tiers!C4</f>
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="L4" t="s">
         <v>3</v>
@@ -1758,21 +1762,21 @@
       </c>
       <c r="O4">
         <f>Tiers!C9</f>
-        <v>-10</v>
+        <v>-7</v>
       </c>
       <c r="P4" t="s">
         <v>1</v>
       </c>
       <c r="Q4">
         <f>Tiers!C4</f>
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="R4" t="s">
         <v>1</v>
       </c>
       <c r="S4">
         <f>Tiers!C4</f>
-        <v>-5</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -1791,21 +1795,21 @@
       </c>
       <c r="E5">
         <f>Tiers!E4</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
       </c>
       <c r="G5">
         <f>Tiers!E21</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H5" t="s">
         <v>10</v>
       </c>
       <c r="I5">
         <f>Tiers!E4</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
         <v>26</v>
@@ -1819,7 +1823,7 @@
       </c>
       <c r="M5">
         <f>Tiers!E14</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N5" t="s">
         <v>15</v>
@@ -1833,7 +1837,7 @@
       </c>
       <c r="Q5">
         <f>Tiers!E4</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R5" t="s">
         <v>26</v>
@@ -1852,14 +1856,14 @@
       </c>
       <c r="C6">
         <f>Tiers!G4</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
         <v>47</v>
       </c>
       <c r="E6">
         <f>Tiers!G18</f>
-        <v>-8</v>
+        <v>-5</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -1873,42 +1877,42 @@
       </c>
       <c r="I6">
         <f>Tiers!G4</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J6" t="s">
         <v>39</v>
       </c>
       <c r="K6">
         <f>Tiers!G10</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L6" t="s">
         <v>37</v>
       </c>
       <c r="M6">
         <f>Tiers!G8</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N6" t="s">
         <v>33</v>
       </c>
       <c r="O6">
         <f>Tiers!G4</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P6" t="s">
         <v>39</v>
       </c>
       <c r="Q6">
         <f>Tiers!G10</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R6" t="s">
         <v>33</v>
       </c>
       <c r="S6">
         <f>Tiers!G4</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -1920,7 +1924,7 @@
       </c>
       <c r="C7">
         <f>Tiers!I6</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D7" t="s">
         <v>63</v>
@@ -1969,7 +1973,7 @@
       </c>
       <c r="Q7">
         <f>Tiers!I6</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R7" t="s">
         <v>71</v>
@@ -1988,14 +1992,14 @@
       </c>
       <c r="C8">
         <f>Tiers!K10</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
         <v>73</v>
       </c>
       <c r="E8">
         <f>Tiers!K4</f>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="F8" t="s">
         <v>76</v>
@@ -2009,35 +2013,35 @@
       </c>
       <c r="I8">
         <f>Tiers!K4</f>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="J8" t="s">
         <v>73</v>
       </c>
       <c r="K8">
         <f>Tiers!K4</f>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="L8" t="s">
         <v>73</v>
       </c>
       <c r="M8">
         <f>Tiers!K4</f>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="N8" t="s">
         <v>83</v>
       </c>
       <c r="O8">
         <f>Tiers!K14</f>
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="P8" t="s">
         <v>79</v>
       </c>
       <c r="Q8">
         <f>Tiers!K10</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R8" t="s">
         <v>78</v>
@@ -2077,7 +2081,7 @@
       </c>
       <c r="I9">
         <f>Tiers!M10</f>
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="J9" t="s">
         <v>88</v>
@@ -2091,7 +2095,7 @@
       </c>
       <c r="M9">
         <f>Tiers!M10</f>
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="N9" t="s">
         <v>92</v>
@@ -2105,7 +2109,7 @@
       </c>
       <c r="Q9">
         <f>Tiers!M10</f>
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="R9" t="s">
         <v>90</v>
@@ -2189,39 +2193,39 @@
       </c>
       <c r="C11">
         <f>SUM(C4:C10)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11">
         <f>SUM(E4:E10)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <f>SUM(G4:G10)</f>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I11">
         <f>SUM(I4:I10)</f>
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="K11">
         <f>SUM(K4:K10)</f>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M11">
         <f>SUM(M4:M10)</f>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O11">
         <f>SUM(O4:O10)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q11">
         <f>SUM(Q4:Q10)</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="S11">
         <f>SUM(S4:S10)</f>
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="18" x14ac:dyDescent="0.35">
@@ -2252,11 +2256,11 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C15">
-        <f>$M$22</f>
-        <v>-6</v>
+        <f>$I$22</f>
+        <v>-15</v>
       </c>
       <c r="E15" t="s">
         <v>0</v>
@@ -2266,7 +2270,7 @@
       </c>
       <c r="G15">
         <f>Tiers!C5</f>
-        <v>-12</v>
+        <v>-16</v>
       </c>
       <c r="H15" t="s">
         <v>3</v>
@@ -2280,28 +2284,28 @@
       </c>
       <c r="K15">
         <f>Tiers!C4</f>
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="L15" t="s">
         <v>2</v>
       </c>
       <c r="M15">
         <f>Tiers!C5</f>
-        <v>-12</v>
+        <v>-16</v>
       </c>
       <c r="N15" t="s">
         <v>6</v>
       </c>
       <c r="O15">
         <f>Tiers!C9</f>
-        <v>-10</v>
+        <v>-7</v>
       </c>
       <c r="P15" t="s">
         <v>2</v>
       </c>
       <c r="Q15">
         <f>Tiers!C5</f>
-        <v>-12</v>
+        <v>-16</v>
       </c>
       <c r="R15" t="s">
         <v>3</v>
@@ -2313,11 +2317,11 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C16">
-        <f>$I$22</f>
-        <v>0</v>
+        <f>$M$22</f>
+        <v>-8</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -2327,42 +2331,42 @@
       </c>
       <c r="G16">
         <f>Tiers!E14</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H16" t="s">
         <v>16</v>
       </c>
       <c r="I16">
         <f>Tiers!E10</f>
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="J16" t="s">
         <v>20</v>
       </c>
       <c r="K16">
         <f>Tiers!E14</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L16" t="s">
         <v>19</v>
       </c>
       <c r="M16">
         <f>Tiers!E13</f>
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="N16" t="s">
         <v>28</v>
       </c>
       <c r="O16">
         <f>Tiers!E22</f>
-        <v>-5</v>
+        <v>4</v>
       </c>
       <c r="P16" t="s">
         <v>12</v>
       </c>
       <c r="Q16">
         <f>Tiers!E6</f>
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="R16" t="s">
         <v>11</v>
@@ -2374,11 +2378,11 @@
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C17">
-        <f>$O$22</f>
-        <v>2</v>
+        <f>$Q$22</f>
+        <v>-7</v>
       </c>
       <c r="E17" t="s">
         <v>32</v>
@@ -2388,21 +2392,21 @@
       </c>
       <c r="G17">
         <f>Tiers!G8</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H17" t="s">
         <v>34</v>
       </c>
       <c r="I17">
         <f>Tiers!G5</f>
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="J17" t="s">
         <v>38</v>
       </c>
       <c r="K17">
         <f>Tiers!G9</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L17" t="s">
         <v>35</v>
@@ -2423,7 +2427,7 @@
       </c>
       <c r="Q17">
         <f>Tiers!G14</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" t="s">
         <v>42</v>
@@ -2435,11 +2439,11 @@
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C18">
-        <f>$Q$22</f>
-        <v>2</v>
+        <f>$E$11</f>
+        <v>1</v>
       </c>
       <c r="E18" t="s">
         <v>51</v>
@@ -2456,7 +2460,7 @@
       </c>
       <c r="I18">
         <f>Tiers!I18</f>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="J18" t="s">
         <v>60</v>
@@ -2470,14 +2474,14 @@
       </c>
       <c r="M18">
         <f>Tiers!I20</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N18" t="s">
         <v>59</v>
       </c>
       <c r="O18">
         <f>Tiers!I11</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P18" t="s">
         <v>62</v>
@@ -2496,11 +2500,11 @@
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C19">
-        <f>$E$11</f>
-        <v>4</v>
+        <f>$Q$11</f>
+        <v>1</v>
       </c>
       <c r="E19" t="s">
         <v>72</v>
@@ -2517,7 +2521,7 @@
       </c>
       <c r="I19">
         <f>Tiers!K4</f>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="J19" t="s">
         <v>85</v>
@@ -2531,37 +2535,37 @@
       </c>
       <c r="M19">
         <f>Tiers!K4</f>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="N19" t="s">
         <v>75</v>
       </c>
       <c r="O19">
         <f>Tiers!K6</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P19" t="s">
         <v>73</v>
       </c>
       <c r="Q19">
         <f>Tiers!K4</f>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="R19" t="s">
         <v>75</v>
       </c>
       <c r="S19">
         <f>Tiers!K6</f>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C20">
-        <f>$O$33</f>
-        <v>6</v>
+        <f>$Q$33</f>
+        <v>2</v>
       </c>
       <c r="E20" t="s">
         <v>86</v>
@@ -2578,14 +2582,14 @@
       </c>
       <c r="I20">
         <f>Tiers!M10</f>
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="J20" t="s">
         <v>93</v>
       </c>
       <c r="K20">
         <f>Tiers!M10</f>
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="L20" t="s">
         <v>88</v>
@@ -2599,7 +2603,7 @@
       </c>
       <c r="O20">
         <f>Tiers!M6</f>
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="P20" t="s">
         <v>92</v>
@@ -2618,11 +2622,11 @@
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="C21">
-        <f>$O$11</f>
-        <v>6</v>
+        <f>$M$33</f>
+        <v>3</v>
       </c>
       <c r="E21" t="s">
         <v>94</v>
@@ -2679,60 +2683,60 @@
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C22">
-        <f>$M$33</f>
-        <v>8</v>
+        <f>$K$33</f>
+        <v>4</v>
       </c>
       <c r="E22" t="s">
         <v>108</v>
       </c>
       <c r="G22">
         <f>SUM(G15:G21)</f>
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I22">
         <f>SUM(I15:I21)</f>
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="K22">
         <f>SUM(K15:K21)</f>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M22">
         <f>SUM(M15:M21)</f>
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="O22">
         <f>SUM(O15:O21)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="Q22">
         <f>SUM(Q15:Q21)</f>
-        <v>2</v>
+        <v>-7</v>
       </c>
       <c r="S22">
         <f>SUM(S15:S21)</f>
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="C23">
-        <f>$C$11</f>
-        <v>9</v>
+        <f>$O$33</f>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C24">
-        <f>$Q$11</f>
-        <v>11</v>
+        <f>$I$11</f>
+        <v>6</v>
       </c>
       <c r="F24" t="s">
         <v>127</v>
@@ -2758,20 +2762,20 @@
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C25">
-        <f>$Q$33</f>
-        <v>12</v>
+        <f>$O$11</f>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="C26">
-        <f>$K$33</f>
-        <v>12</v>
+        <f>$C$11</f>
+        <v>8</v>
       </c>
       <c r="E26" t="s">
         <v>0</v>
@@ -2781,58 +2785,58 @@
       </c>
       <c r="G26">
         <f>Tiers!C7</f>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="H26" t="s">
         <v>6</v>
       </c>
       <c r="I26">
         <f>Tiers!C9</f>
-        <v>-10</v>
+        <v>-7</v>
       </c>
       <c r="J26" t="s">
         <v>2</v>
       </c>
       <c r="K26">
         <f>Tiers!C5</f>
-        <v>-12</v>
+        <v>-16</v>
       </c>
       <c r="L26" t="s">
         <v>6</v>
       </c>
       <c r="M26">
         <f>Tiers!C9</f>
-        <v>-10</v>
+        <v>-7</v>
       </c>
       <c r="N26" t="s">
         <v>1</v>
       </c>
       <c r="O26">
         <f>Tiers!C4</f>
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="P26" t="s">
         <v>2</v>
       </c>
       <c r="Q26">
         <f>Tiers!C5</f>
-        <v>-12</v>
+        <v>-16</v>
       </c>
       <c r="R26" t="s">
         <v>1</v>
       </c>
       <c r="S26">
         <f>Tiers!C4</f>
-        <v>-5</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="C27">
-        <f>$I$11</f>
-        <v>14</v>
+        <f>$S$33</f>
+        <v>9</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
@@ -2856,44 +2860,44 @@
       </c>
       <c r="K27">
         <f>Tiers!E4</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L27" t="s">
         <v>16</v>
       </c>
       <c r="M27">
         <f>Tiers!E10</f>
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="N27" t="s">
         <v>20</v>
       </c>
       <c r="O27">
         <f>Tiers!E14</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P27" t="s">
         <v>14</v>
       </c>
       <c r="Q27">
         <f>Tiers!E8</f>
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="R27" t="s">
         <v>10</v>
       </c>
       <c r="S27">
         <f>Tiers!E4</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C28">
-        <f>$S$33</f>
-        <v>16</v>
+        <f>$O$22</f>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
         <v>32</v>
@@ -2910,7 +2914,7 @@
       </c>
       <c r="I28">
         <f>Tiers!G4</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J28" t="s">
         <v>36</v>
@@ -2924,14 +2928,14 @@
       </c>
       <c r="M28">
         <f>Tiers!G8</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N28" t="s">
         <v>47</v>
       </c>
       <c r="O28">
         <f>Tiers!G18</f>
-        <v>-8</v>
+        <v>-5</v>
       </c>
       <c r="P28" t="s">
         <v>35</v>
@@ -2945,16 +2949,16 @@
       </c>
       <c r="S28">
         <f>Tiers!G10</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C29">
-        <f>$I$33</f>
-        <v>16</v>
+        <f>$I$44</f>
+        <v>12</v>
       </c>
       <c r="E29" t="s">
         <v>51</v>
@@ -2978,7 +2982,7 @@
       </c>
       <c r="K29">
         <f>Tiers!I7</f>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="L29" t="s">
         <v>60</v>
@@ -2992,7 +2996,7 @@
       </c>
       <c r="O29">
         <f>Tiers!I22</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="P29" t="s">
         <v>60</v>
@@ -3015,7 +3019,7 @@
       </c>
       <c r="C30">
         <f>$M$11</f>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E30" t="s">
         <v>72</v>
@@ -3025,21 +3029,21 @@
       </c>
       <c r="G30">
         <f>Tiers!K10</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H30" t="s">
         <v>73</v>
       </c>
       <c r="I30">
         <f>Tiers!K4</f>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="J30" t="s">
         <v>73</v>
       </c>
       <c r="K30">
         <f>Tiers!K4</f>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="L30" t="s">
         <v>76</v>
@@ -3053,30 +3057,30 @@
       </c>
       <c r="O30">
         <f>Tiers!K6</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P30" t="s">
         <v>75</v>
       </c>
       <c r="Q30">
         <f>Tiers!K6</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R30" t="s">
         <v>73</v>
       </c>
       <c r="S30">
         <f>Tiers!K4</f>
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="C31">
-        <f>$I$44</f>
-        <v>20</v>
+        <f>$K$22</f>
+        <v>19</v>
       </c>
       <c r="E31" t="s">
         <v>86</v>
@@ -3086,7 +3090,7 @@
       </c>
       <c r="G31">
         <f>Tiers!M10</f>
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="H31" t="s">
         <v>87</v>
@@ -3107,14 +3111,14 @@
       </c>
       <c r="M31">
         <f>Tiers!M6</f>
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="N31" t="s">
         <v>93</v>
       </c>
       <c r="O31">
         <f>Tiers!M10</f>
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="P31" t="s">
         <v>90</v>
@@ -3133,11 +3137,11 @@
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="C32">
-        <f>$K$22</f>
-        <v>21</v>
+        <f>$G$44</f>
+        <v>19</v>
       </c>
       <c r="E32" t="s">
         <v>94</v>
@@ -3194,30 +3198,30 @@
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="C33">
-        <f>$K$11</f>
-        <v>25</v>
+        <f>$I$33</f>
+        <v>20</v>
       </c>
       <c r="E33" t="s">
         <v>108</v>
       </c>
       <c r="G33">
         <f>SUM(G26:G32)</f>
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I33">
         <f>SUM(I26:I32)</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K33">
         <f>SUM(K26:K32)</f>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="M33">
         <f>SUM(M26:M32)</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="O33">
         <f>SUM(O26:O32)</f>
@@ -3225,20 +3229,20 @@
       </c>
       <c r="Q33">
         <f>SUM(Q26:Q32)</f>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="S33">
         <f>SUM(S26:S32)</f>
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C34">
-        <f>$G$44</f>
-        <v>26</v>
+        <f>$K$11</f>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.3">
@@ -3247,7 +3251,7 @@
       </c>
       <c r="C35">
         <f>$G$33</f>
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F35" t="s">
         <v>133</v>
@@ -3262,7 +3266,7 @@
       </c>
       <c r="C36">
         <f>$S$22</f>
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.3">
@@ -3271,7 +3275,7 @@
       </c>
       <c r="C37">
         <f>$S$11</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E37" t="s">
         <v>0</v>
@@ -3288,7 +3292,7 @@
       </c>
       <c r="I37">
         <f>Tiers!C10</f>
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.3">
@@ -3297,7 +3301,7 @@
       </c>
       <c r="C38">
         <f>$G$22</f>
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E38" t="s">
         <v>9</v>
@@ -3307,14 +3311,14 @@
       </c>
       <c r="G38">
         <f>Tiers!E4</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H38" t="s">
         <v>16</v>
       </c>
       <c r="I38">
         <f>Tiers!E10</f>
-        <v>4</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.3">
@@ -3323,7 +3327,7 @@
       </c>
       <c r="C39">
         <f>$G$11</f>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E39" t="s">
         <v>32</v>
@@ -3371,14 +3375,14 @@
       </c>
       <c r="G41">
         <f>Tiers!K4</f>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="H41" t="s">
         <v>73</v>
       </c>
       <c r="I41">
         <f>Tiers!K4</f>
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.3">
@@ -3390,7 +3394,7 @@
       </c>
       <c r="G42">
         <f>Tiers!M10</f>
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="H42" t="s">
         <v>92</v>
@@ -3425,11 +3429,11 @@
       </c>
       <c r="G44">
         <f>SUM(G37:G43)</f>
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="I44">
         <f>SUM(I37:I43)</f>
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -3445,7 +3449,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3661,6 +3665,9 @@
       <c r="A25" t="s">
         <v>143</v>
       </c>
+      <c r="B25" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B26">
